--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01_Projecten\02_Shadow-Bot\04.Spider-bot\MARK_II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\MarkII_robot\MarkII\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -582,6 +582,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,7 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,18 +1090,18 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1795,7 @@
       <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D10" t="s">
@@ -1806,7 +1806,7 @@
       <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1865,7 +1865,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D20" t="s">
@@ -1876,7 +1876,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,10 +1998,10 @@
       <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2233,14 +2233,14 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="K18" s="7"/>
       <c r="L18" s="6"/>
     </row>
@@ -2273,10 +2273,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="9">
         <v>1</v>
       </c>
       <c r="K21" s="6">
